--- a/column_names.xlsx
+++ b/column_names.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A199"/>
+  <dimension ref="A1:A212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,768 +1059,859 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HV247</t>
+          <t>HV246A</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HV252</t>
+          <t>HV246B</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HV255</t>
+          <t>HV246C</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HV259</t>
+          <t>HV246D</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HV261</t>
+          <t>HV246E</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HV262</t>
+          <t>HV246F</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HV263</t>
+          <t>HV246G</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HV270</t>
+          <t>HV247</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HV271</t>
+          <t>HV252</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HV270A</t>
+          <t>HV255</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HV271A</t>
+          <t>HV259</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HML1</t>
+          <t>HV261</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HML1A</t>
+          <t>HV262</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HML2</t>
+          <t>HV263</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SHDV</t>
+          <t>HV270</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SHSHORT</t>
+          <t>HV271</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SHENDEM</t>
+          <t>HV270A</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SH127A</t>
+          <t>HV271A</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SH127B</t>
+          <t>HML1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SH131A</t>
+          <t>HML1A</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SH132G</t>
+          <t>HML2</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SH132H</t>
+          <t>SHDV</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SH132I</t>
+          <t>SHSHORT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SH132J</t>
+          <t>SHENDEM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SH132K</t>
+          <t>SH127A</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SH132L</t>
+          <t>SH127B</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SH132M</t>
+          <t>SH131A</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SH132N</t>
+          <t>SH132G</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SH132O</t>
+          <t>SH132H</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SH132P</t>
+          <t>SH132I</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SH134AA</t>
+          <t>SH132J</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SH134AB</t>
+          <t>SH132K</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SH134AC</t>
+          <t>SH132L</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SH134AD</t>
+          <t>SH132M</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SH134AE</t>
+          <t>SH132N</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SH134CA</t>
+          <t>SH132O</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SH134CB</t>
+          <t>SH132P</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SH134CC</t>
+          <t>SH134AA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SH134CD</t>
+          <t>SH134AB</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SH134CE</t>
+          <t>SH134AC</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SH134CF</t>
+          <t>SH134AD</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SH134CG</t>
+          <t>SH134AE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SH134CH</t>
+          <t>SH134CA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SH134CI</t>
+          <t>SH134CB</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SH134CJ</t>
+          <t>SH134CC</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SH134CX</t>
+          <t>SH134CD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SH134D</t>
+          <t>SH134CE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SH136</t>
+          <t>SH134CF</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HVIDX$01</t>
+          <t>SH134CG</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HVIDX$02</t>
+          <t>SH134CH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HV101$01</t>
+          <t>SH134CI</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HV101$02</t>
+          <t>SH134CJ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HV102$01</t>
+          <t>SH134CX</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HV102$02</t>
+          <t>SH134D</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HV103$01</t>
+          <t>SH135B</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HV103$02</t>
+          <t>SH135D</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HV104$01</t>
+          <t>SH135F</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HV104$02</t>
+          <t>SH135J</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HV105$01</t>
+          <t>SH135L</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HV105$02</t>
+          <t>SH136</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HV106$01</t>
+          <t>HVIDX$01</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HV106$02</t>
+          <t>HVIDX$02</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HV108$01</t>
+          <t>HV101$01</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HV108$02</t>
+          <t>HV101$02</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HV109$01</t>
+          <t>HV102$01</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HV109$02</t>
+          <t>HV102$02</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HV115$01</t>
+          <t>HV103$01</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HV116$01</t>
+          <t>HV103$02</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HV117$01</t>
+          <t>HV104$01</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HV117$02</t>
+          <t>HV104$02</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HV118$01</t>
+          <t>HV105$01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HV118$02</t>
+          <t>HV105$02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HV120$01</t>
+          <t>HV106$01</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HV120$02</t>
+          <t>HV106$02</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HV121$01</t>
+          <t>HV107$01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HV121$02</t>
+          <t>HV108$01</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HV122$01</t>
+          <t>HV108$02</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HV122$02</t>
+          <t>HV109$01</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HV124$01</t>
+          <t>HV109$02</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HV124$02</t>
+          <t>HV115$01</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HV125$01</t>
+          <t>HV116$01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HV125$02</t>
+          <t>HV117$01</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HV126$01</t>
+          <t>HV117$02</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HV126$02</t>
+          <t>HV118$01</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HV128$01</t>
+          <t>HV118$02</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HV128$02</t>
+          <t>HV120$01</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IDXH4$01</t>
+          <t>HV120$02</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IDXH4$02</t>
+          <t>HV121$01</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SHEDUC$01</t>
+          <t>HV121$02</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SHEDUC$02</t>
+          <t>HV122$01</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SHCUREDUC$01</t>
+          <t>HV122$02</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SHCUREDUC$02</t>
+          <t>HV124$01</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SHPRVEDUC$01</t>
+          <t>HV124$02</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SHPRVEDUC$02</t>
+          <t>HV125$01</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HMHIDX$01</t>
+          <t>HV125$02</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HMHIDX$02</t>
+          <t>HV126$01</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HML12$01</t>
+          <t>HV126$02</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HML12$02</t>
+          <t>HV128$01</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HML13$01</t>
+          <t>HV128$02</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HML13$02</t>
+          <t>IDXH4$01</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HML16$01</t>
+          <t>IDXH4$02</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HML16$02</t>
+          <t>SHEDUC$01</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HML17$01</t>
+          <t>SHEDUC$02</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HML17$02</t>
+          <t>SHCUREDUC$01</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HML19$01</t>
+          <t>SHCUREDUC$02</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HML19$02</t>
+          <t>SHPRVEDUC$01</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HML20$01</t>
+          <t>SHPRVEDUC$02</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HML20$02</t>
+          <t>HMHIDX$01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>IDXDIS$01</t>
+          <t>HMHIDX$02</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
+        <is>
+          <t>HML12$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>HML12$02</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>HML13$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>HML13$02</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>HML16$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>HML16$02</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>HML17$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>HML17$02</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>HML19$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>HML19$02</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HML20$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>HML20$02</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>IDXDIS$01</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>IDXDIS$02</t>
         </is>
